--- a/biology/Botanique/Diaspore_(botanique)/Diaspore_(botanique).xlsx
+++ b/biology/Botanique/Diaspore_(botanique)/Diaspore_(botanique).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une diaspore, ou disséminule (on parle aussi de propagule) est un élément qui permet d'accomplir la dissémination d'une espèce végétale par :
 reproduction sexuée ;
 dispersion des graines ;
 multiplication asexuée.
-Pour être invasive ou envahissante, une plante doit avoir une bonne dispersion de ses diaspores, c'est l'un des critères qui peut faire classer une plante comme potentiellement invasive[1].
+Pour être invasive ou envahissante, une plante doit avoir une bonne dispersion de ses diaspores, c'est l'un des critères qui peut faire classer une plante comme potentiellement invasive.
 </t>
         </is>
       </c>
@@ -515,7 +527,9 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Bouture, rhizome, graine, spore, etc.
 </t>
@@ -546,7 +560,9 @@
           <t>Les vecteurs de dispersion</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Anémochorie : dispersion des diaspores par le vent.
 Hydrochorie : dispersion des diaspores par l'eau (par les gouttes de pluie qui ouvrent le fruit en tombant dessus : ombrahydrochorie ; par les courants d'eau : nautochorie)
